--- a/contratos/contratos-8-2009.xlsx
+++ b/contratos/contratos-8-2009.xlsx
@@ -565,7 +565,7 @@
     <t>INGANI ALBERTO RAMON</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -619,7 +619,7 @@
     <t>MINATTA CARLOS A. Y CABRERA MARCELO D.</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -637,10 +637,10 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>METRALLE GRISELDA BEATRIZ</t>
@@ -1030,391 +1030,391 @@
     <t>17</t>
   </si>
   <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>2.923,50</t>
-  </si>
-  <si>
-    <t>2.182,26</t>
-  </si>
-  <si>
-    <t>961,30</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>4.486,18</t>
-  </si>
-  <si>
-    <t>27.860,98</t>
-  </si>
-  <si>
-    <t>35.205,16</t>
-  </si>
-  <si>
-    <t>14.405,44</t>
-  </si>
-  <si>
-    <t>9.005,72</t>
-  </si>
-  <si>
-    <t>996,75</t>
-  </si>
-  <si>
-    <t>6.240,00</t>
-  </si>
-  <si>
-    <t>1.542,50</t>
-  </si>
-  <si>
-    <t>4.061,09</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>490,50</t>
-  </si>
-  <si>
-    <t>655,19</t>
-  </si>
-  <si>
-    <t>6.352,35</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>648,00</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>24,20</t>
-  </si>
-  <si>
-    <t>1.484,40</t>
-  </si>
-  <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
-    <t>114,42</t>
-  </si>
-  <si>
-    <t>1.640,25</t>
-  </si>
-  <si>
-    <t>7.297,48</t>
-  </si>
-  <si>
-    <t>9.400,90</t>
-  </si>
-  <si>
-    <t>38,62</t>
-  </si>
-  <si>
-    <t>387,15</t>
-  </si>
-  <si>
-    <t>825,22</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>473,97</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>43,00</t>
-  </si>
-  <si>
-    <t>7.043,44</t>
-  </si>
-  <si>
-    <t>815,00</t>
-  </si>
-  <si>
-    <t>861,00</t>
-  </si>
-  <si>
-    <t>488,00</t>
-  </si>
-  <si>
-    <t>516,60</t>
-  </si>
-  <si>
-    <t>1.616,00</t>
-  </si>
-  <si>
-    <t>2.176,00</t>
-  </si>
-  <si>
-    <t>2.596,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>189,78</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>6.392,43</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>355,00</t>
-  </si>
-  <si>
-    <t>2.064,42</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>461,40</t>
-  </si>
-  <si>
-    <t>9.270,80</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>10.681,60</t>
-  </si>
-  <si>
-    <t>93,00</t>
-  </si>
-  <si>
-    <t>552,30</t>
-  </si>
-  <si>
-    <t>470,00</t>
-  </si>
-  <si>
-    <t>639,00</t>
-  </si>
-  <si>
-    <t>519,00</t>
-  </si>
-  <si>
-    <t>1.835,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>110,50</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>2.832,40</t>
-  </si>
-  <si>
-    <t>2.177,90</t>
-  </si>
-  <si>
-    <t>1.810,11</t>
-  </si>
-  <si>
-    <t>6.753,86</t>
-  </si>
-  <si>
-    <t>74,78</t>
-  </si>
-  <si>
-    <t>177,00</t>
-  </si>
-  <si>
-    <t>1.309,99</t>
-  </si>
-  <si>
-    <t>1.270,00</t>
-  </si>
-  <si>
-    <t>232,70</t>
-  </si>
-  <si>
-    <t>353,00</t>
-  </si>
-  <si>
-    <t>11.461,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>675,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>243,20</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>5.304,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>2.263,18</t>
-  </si>
-  <si>
-    <t>351,00</t>
-  </si>
-  <si>
-    <t>2.481,83</t>
-  </si>
-  <si>
-    <t>3.630,00</t>
-  </si>
-  <si>
-    <t>2.130,55</t>
-  </si>
-  <si>
-    <t>11.416,86</t>
-  </si>
-  <si>
-    <t>1.480,00</t>
-  </si>
-  <si>
-    <t>397,80</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>9.189,25</t>
-  </si>
-  <si>
-    <t>238,30</t>
-  </si>
-  <si>
-    <t>855,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>3.147,00</t>
-  </si>
-  <si>
-    <t>1.153,00</t>
-  </si>
-  <si>
-    <t>27.507,85</t>
-  </si>
-  <si>
-    <t>294,20</t>
-  </si>
-  <si>
-    <t>3.831,07</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>20,50</t>
-  </si>
-  <si>
-    <t>4.753,55</t>
-  </si>
-  <si>
-    <t>147,40</t>
-  </si>
-  <si>
-    <t>427,50</t>
-  </si>
-  <si>
-    <t>10.473,50</t>
-  </si>
-  <si>
-    <t>456,00</t>
-  </si>
-  <si>
-    <t>3.536,83</t>
-  </si>
-  <si>
-    <t>825,45</t>
-  </si>
-  <si>
-    <t>3.375,00</t>
-  </si>
-  <si>
-    <t>2.542,25</t>
-  </si>
-  <si>
-    <t>28,40</t>
-  </si>
-  <si>
-    <t>40.500,00</t>
-  </si>
-  <si>
-    <t>979,26</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>779,25</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>1.082,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>2923.50</t>
+  </si>
+  <si>
+    <t>2182.26</t>
+  </si>
+  <si>
+    <t>961.30</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>4486.18</t>
+  </si>
+  <si>
+    <t>27860.98</t>
+  </si>
+  <si>
+    <t>35205.16</t>
+  </si>
+  <si>
+    <t>14405.44</t>
+  </si>
+  <si>
+    <t>9005.72</t>
+  </si>
+  <si>
+    <t>996.75</t>
+  </si>
+  <si>
+    <t>6240.00</t>
+  </si>
+  <si>
+    <t>1542.50</t>
+  </si>
+  <si>
+    <t>4061.09</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>490.50</t>
+  </si>
+  <si>
+    <t>655.19</t>
+  </si>
+  <si>
+    <t>6352.35</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>648.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>24.20</t>
+  </si>
+  <si>
+    <t>1484.40</t>
+  </si>
+  <si>
+    <t>2040.00</t>
+  </si>
+  <si>
+    <t>114.42</t>
+  </si>
+  <si>
+    <t>1640.25</t>
+  </si>
+  <si>
+    <t>7297.48</t>
+  </si>
+  <si>
+    <t>9400.90</t>
+  </si>
+  <si>
+    <t>38.62</t>
+  </si>
+  <si>
+    <t>387.15</t>
+  </si>
+  <si>
+    <t>825.22</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>473.97</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>7043.44</t>
+  </si>
+  <si>
+    <t>815.00</t>
+  </si>
+  <si>
+    <t>861.00</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>516.60</t>
+  </si>
+  <si>
+    <t>1616.00</t>
+  </si>
+  <si>
+    <t>2176.00</t>
+  </si>
+  <si>
+    <t>2596.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>189.78</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>6392.43</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>355.00</t>
+  </si>
+  <si>
+    <t>2064.42</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>461.40</t>
+  </si>
+  <si>
+    <t>9270.80</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>10681.60</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>552.30</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>639.00</t>
+  </si>
+  <si>
+    <t>519.00</t>
+  </si>
+  <si>
+    <t>1835.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>110.50</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>2832.40</t>
+  </si>
+  <si>
+    <t>2177.90</t>
+  </si>
+  <si>
+    <t>1810.11</t>
+  </si>
+  <si>
+    <t>6753.86</t>
+  </si>
+  <si>
+    <t>74.78</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>1309.99</t>
+  </si>
+  <si>
+    <t>1270.00</t>
+  </si>
+  <si>
+    <t>232.70</t>
+  </si>
+  <si>
+    <t>353.00</t>
+  </si>
+  <si>
+    <t>11461.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>675.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>243.20</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>5304.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>2263.18</t>
+  </si>
+  <si>
+    <t>351.00</t>
+  </si>
+  <si>
+    <t>2481.83</t>
+  </si>
+  <si>
+    <t>3630.00</t>
+  </si>
+  <si>
+    <t>2130.55</t>
+  </si>
+  <si>
+    <t>11416.86</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>397.80</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9189.25</t>
+  </si>
+  <si>
+    <t>238.30</t>
+  </si>
+  <si>
+    <t>855.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>3147.00</t>
+  </si>
+  <si>
+    <t>1153.00</t>
+  </si>
+  <si>
+    <t>27507.85</t>
+  </si>
+  <si>
+    <t>294.20</t>
+  </si>
+  <si>
+    <t>3831.07</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.50</t>
+  </si>
+  <si>
+    <t>4753.55</t>
+  </si>
+  <si>
+    <t>147.40</t>
+  </si>
+  <si>
+    <t>427.50</t>
+  </si>
+  <si>
+    <t>10473.50</t>
+  </si>
+  <si>
+    <t>456.00</t>
+  </si>
+  <si>
+    <t>3536.83</t>
+  </si>
+  <si>
+    <t>825.45</t>
+  </si>
+  <si>
+    <t>3375.00</t>
+  </si>
+  <si>
+    <t>2542.25</t>
+  </si>
+  <si>
+    <t>28.40</t>
+  </si>
+  <si>
+    <t>40500.00</t>
+  </si>
+  <si>
+    <t>979.26</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>779.25</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>1082.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
   </si>
 </sst>
 </file>
